--- a/biology/Médecine/Foramen/Foramen.xlsx
+++ b/biology/Médecine/Foramen/Foramen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, foramen (mot latin, au pluriel : foramina) signifie simplement « trou » ; on le rencontre par exemple pour le foramen ovale dans le cœur, ou pour le foramen magnum qui est en fait le grand trou percé dans l'os occipital.
 Chez les crocodiliens, on trouve le foramen de Panizza.
